--- a/css.xlsx
+++ b/css.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="regras CSS - @" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Váriaveis --" sheetId="9" r:id="rId7"/>
     <sheet name="Responsividade" sheetId="10" r:id="rId8"/>
     <sheet name="Eventos" sheetId="11" r:id="rId9"/>
+    <sheet name="Imagens" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="255">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1262,12 +1263,88 @@
   <si>
     <t>divide a lista</t>
   </si>
+  <si>
+    <t>Inserir imagens</t>
+  </si>
+  <si>
+    <t>repeat-y</t>
+  </si>
+  <si>
+    <t>no-repeat</t>
+  </si>
+  <si>
+    <t>repeat-x</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>('caminho da imagem')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-repeat:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>repeat-y</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1600,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1815,7 +1904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2013,207 +2102,222 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2258,7 +2362,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3072,6 +3175,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="32.25" thickBot="1">
+      <c r="A1" s="164" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="163" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B2" s="160" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="161"/>
+      <c r="C3" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B4" s="162"/>
+      <c r="C4" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2"/>
@@ -3367,86 +3521,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="108" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="113"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="107" t="s">
+      <c r="A4" s="109"/>
+      <c r="B4" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="113"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="114"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="120"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="105" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -3463,7 +3617,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="110"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -3478,7 +3632,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="110"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -3493,22 +3647,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="110"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="110"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -3516,16 +3670,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -3540,301 +3694,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="94" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="105"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="105"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="105"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="105"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="105"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="101"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="105"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="105"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="105"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="105"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="106"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="94" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="105"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="101"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="105"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="101"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="105"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="101"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="105"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="101"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="105"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="101"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="105"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="105"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="101"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="105"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="101"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="105"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="102"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="118" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -3851,7 +4005,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="92"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -3866,7 +4020,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="120" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -3883,7 +4037,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="94"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -3900,7 +4054,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="118" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -3915,57 +4069,57 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="97"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="95" t="s">
+      <c r="D40" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="97"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="92"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="92" t="s">
         <v>240</v>
       </c>
       <c r="C43" s="30"/>
@@ -3977,8 +4131,8 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="105"/>
-      <c r="B44" s="157" t="s">
+      <c r="A44" s="95"/>
+      <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
       <c r="C44" s="89" t="s">
@@ -3992,8 +4146,8 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="105"/>
-      <c r="B45" s="157" t="s">
+      <c r="A45" s="95"/>
+      <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
       <c r="C45" s="89" t="s">
@@ -4007,8 +4161,8 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="105"/>
-      <c r="B46" s="157" t="s">
+      <c r="A46" s="95"/>
+      <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="26" t="s">
@@ -4022,8 +4176,8 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="106"/>
-      <c r="B47" s="159" t="s">
+      <c r="A47" s="96"/>
+      <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -4038,6 +4192,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C24:I34"/>
+    <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="C13:I23"/>
@@ -4054,8 +4210,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="D40:G42"/>
     <mergeCell ref="A39:A42"/>
-    <mergeCell ref="C24:I34"/>
-    <mergeCell ref="A24:A34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4067,7 +4221,7 @@
   <sheetPr codeName="Plan11"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -4081,10 +4235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="147" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4098,8 +4252,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97"/>
-      <c r="B2" s="129"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="148"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4111,8 +4265,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="97"/>
-      <c r="B3" s="129"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="148"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4124,8 +4278,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="97"/>
-      <c r="B4" s="129"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4137,8 +4291,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="97"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4150,8 +4304,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="130"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4163,8 +4317,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="97"/>
-      <c r="B7" s="128" t="s">
+      <c r="A7" s="124"/>
+      <c r="B7" s="147" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4178,8 +4332,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="97"/>
-      <c r="B8" s="129"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4191,8 +4345,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="97"/>
-      <c r="B9" s="129"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4204,8 +4358,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="97"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4217,8 +4371,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="97"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4230,8 +4384,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="130"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4243,10 +4397,10 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="118" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="147" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="136" t="s">
@@ -4258,30 +4412,30 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="97"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="131" t="s">
+      <c r="A14" s="124"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="132" t="s">
+      <c r="A15" s="124"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="97"/>
-      <c r="B16" s="128" t="s">
+      <c r="A16" s="124"/>
+      <c r="B16" s="147" t="s">
         <v>145</v>
       </c>
       <c r="C16" s="136" t="s">
@@ -4293,40 +4447,40 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="97"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="131" t="s">
+      <c r="A17" s="124"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="97"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="131" t="s">
+      <c r="A18" s="124"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="132" t="s">
+      <c r="A19" s="124"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="97"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -4339,33 +4493,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="97"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="92"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="118" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -4380,7 +4534,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="97"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -4393,7 +4547,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="97"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -4406,7 +4560,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="97"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -4419,7 +4573,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="92"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -4432,7 +4586,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="138" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -4447,7 +4601,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="138"/>
+      <c r="A29" s="139"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -4460,7 +4614,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="139"/>
+      <c r="A30" s="140"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -4473,7 +4627,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="125" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -4488,7 +4642,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="141"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -4501,20 +4655,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="142" t="s">
+      <c r="B33" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="144"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="129"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -4525,7 +4679,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="130" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -4540,94 +4694,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="146"/>
-      <c r="B36" s="145" t="s">
+      <c r="A36" s="131"/>
+      <c r="B36" s="130" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="148" t="s">
+      <c r="D36" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="148"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="146"/>
-      <c r="B37" s="146"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="148" t="s">
+      <c r="D37" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="148"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="146"/>
-      <c r="B38" s="146"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="149" t="s">
+      <c r="D38" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="149"/>
+      <c r="E38" s="134"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="147"/>
-      <c r="B42" s="147"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="118" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -4642,7 +4796,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="97"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -4655,7 +4809,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="97"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -4668,7 +4822,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="92"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -4694,47 +4848,33 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="122" t="s">
+      <c r="B48" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123" t="s">
+      <c r="C48" s="141"/>
+      <c r="D48" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="124"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="143"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="127" t="s">
+      <c r="A49" s="119"/>
+      <c r="B49" s="146" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="127"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="126"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E42"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
@@ -4751,6 +4891,20 @@
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4779,17 +4933,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="153"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="156"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -4798,39 +4952,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="94" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="105"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -4847,7 +5001,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -4864,80 +5018,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="94" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152" t="s">
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="153"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="106"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150" t="s">
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="94" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="157" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="158"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="106"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4976,13 +5130,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5002,7 +5156,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5012,7 +5166,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5026,7 +5180,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="106"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="271">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1338,6 +1338,86 @@
       </rPr>
       <t>repeat-y</t>
     </r>
+  </si>
+  <si>
+    <t>Repetição de Imagens</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 20px;</t>
+    </r>
+  </si>
+  <si>
+    <t>Tamanho de imagens</t>
+  </si>
+  <si>
+    <t>Posição de imagens</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: left top</t>
+    </r>
+  </si>
+  <si>
+    <t>left top</t>
+  </si>
+  <si>
+    <t>Padrão</t>
+  </si>
+  <si>
+    <t>right top</t>
+  </si>
+  <si>
+    <t>left center</t>
+  </si>
+  <si>
+    <t>center center</t>
+  </si>
+  <si>
+    <t>left bottom</t>
+  </si>
+  <si>
+    <t>center top</t>
+  </si>
+  <si>
+    <t>center bottom</t>
+  </si>
+  <si>
+    <t>right center</t>
+  </si>
+  <si>
+    <t>right bottom</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2105,6 +2185,75 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2114,69 +2263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,13 +2395,22 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3177,49 +3272,147 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A1" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="49"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B2" s="160" t="s">
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="162" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="126"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="161"/>
-      <c r="C3" s="25" t="s">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="126"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B4" s="162"/>
-      <c r="C4" s="22" t="s">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="121"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A6" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="164" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="165"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="117" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="162" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="166" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="118"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="167" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="118"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="167" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="118"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="118"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="167" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="118"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="167" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="118"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="167" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="118"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="167" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A15" s="119"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A7:A15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3521,86 +3714,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="101" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="109"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="103" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="96" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="109"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="110"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="98" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -3617,7 +3810,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="106"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -3632,7 +3825,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="106"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -3647,22 +3840,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="106"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="106"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -3670,16 +3863,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="107"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -3694,301 +3887,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="117" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="95"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="95"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="95"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="95"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="95"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="95"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="95"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="95"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="95"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="96"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="117" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="98"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="95"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="95"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="95"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="114"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="95"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="95"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="114"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="95"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="114"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="95"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="114"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="95"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="95"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="114"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="96"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="116"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="120" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4005,7 +4198,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="119"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4020,7 +4213,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="120" t="s">
+      <c r="A37" s="122" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4037,7 +4230,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="121"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4054,7 +4247,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="120" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4069,54 +4262,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="124"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="124"/>
+      <c r="A41" s="126"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="119"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="117" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4131,7 +4324,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="95"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4146,7 +4339,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="95"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4161,7 +4354,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="95"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4176,7 +4369,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="96"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4197,6 +4390,10 @@
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A7:A12"/>
@@ -4206,10 +4403,6 @@
     <mergeCell ref="D4:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4235,10 +4428,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="149" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4252,8 +4445,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="124"/>
-      <c r="B2" s="148"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4265,8 +4458,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="124"/>
-      <c r="B3" s="148"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4278,8 +4471,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="124"/>
-      <c r="B4" s="148"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4291,8 +4484,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4304,8 +4497,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="149"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4317,8 +4510,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
-      <c r="B7" s="147" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="149" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4332,8 +4525,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="124"/>
-      <c r="B8" s="148"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4345,8 +4538,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="124"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4358,8 +4551,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124"/>
-      <c r="B10" s="148"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4371,8 +4564,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="124"/>
-      <c r="B11" s="148"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4384,8 +4577,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="149"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4397,90 +4590,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="138" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="137" t="s">
+      <c r="A14" s="126"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="124"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="135" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124"/>
-      <c r="B16" s="147" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="137" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="124"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="137" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="124"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="135" t="s">
+      <c r="A19" s="126"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="124"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -4493,33 +4686,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="124"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="119"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="152"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="120" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -4534,7 +4727,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -4547,7 +4740,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="124"/>
+      <c r="A25" s="126"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -4560,7 +4753,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="124"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -4573,7 +4766,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="119"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -4586,7 +4779,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="140" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -4601,7 +4794,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="139"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -4614,7 +4807,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="140"/>
+      <c r="A30" s="142"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -4627,7 +4820,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="127" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -4642,7 +4835,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="126"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -4655,20 +4848,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="96"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -4679,7 +4872,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="130" t="s">
+      <c r="A35" s="132" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -4694,94 +4887,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="130" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="132" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="133" t="s">
+      <c r="D36" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="133"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="131"/>
-      <c r="B37" s="131"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="133" t="s">
+      <c r="D37" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="133"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="131"/>
-      <c r="B38" s="131"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="134" t="s">
+      <c r="D38" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="134"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="131"/>
-      <c r="B39" s="131"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="131"/>
-      <c r="B40" s="131"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="131"/>
-      <c r="B41" s="131"/>
+      <c r="A41" s="133"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="132"/>
-      <c r="B42" s="132"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="120" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -4796,7 +4989,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="124"/>
+      <c r="A44" s="126"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -4809,7 +5002,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="124"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -4822,7 +5015,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="119"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -4848,30 +5041,30 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="118" t="s">
+      <c r="A48" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="141"/>
-      <c r="D48" s="142" t="s">
+      <c r="C48" s="143"/>
+      <c r="D48" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="143"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="145"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="146" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="148" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="146"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="145"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -4933,17 +5126,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -4952,39 +5145,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="117" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="95"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5001,7 +5194,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="95"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5018,80 +5211,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="117" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155" t="s">
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="158"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153" t="s">
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="117" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="158"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="96"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5130,13 +5323,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5166,7 +5359,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="117" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5180,7 +5373,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="96"/>
+      <c r="A2" s="119"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="276">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1346,6 +1346,12 @@
     <t>repeat</t>
   </si>
   <si>
+    <t>Tamanho de imagens</t>
+  </si>
+  <si>
+    <t>Posição de imagens</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1353,7 +1359,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>background-size</t>
+      <t>background-position</t>
     </r>
     <r>
       <rPr>
@@ -1361,14 +1367,50 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>: 20px;</t>
-    </r>
-  </si>
-  <si>
-    <t>Tamanho de imagens</t>
-  </si>
-  <si>
-    <t>Posição de imagens</t>
+      <t>: left top</t>
+    </r>
+  </si>
+  <si>
+    <t>left top</t>
+  </si>
+  <si>
+    <t>Padrão</t>
+  </si>
+  <si>
+    <t>right top</t>
+  </si>
+  <si>
+    <t>left center</t>
+  </si>
+  <si>
+    <t>center center</t>
+  </si>
+  <si>
+    <t>left bottom</t>
+  </si>
+  <si>
+    <t>center top</t>
+  </si>
+  <si>
+    <t>center bottom</t>
+  </si>
+  <si>
+    <t>right center</t>
+  </si>
+  <si>
+    <t>right bottom</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>imagem 100% exibida</t>
+  </si>
+  <si>
+    <t>cover</t>
   </si>
   <si>
     <r>
@@ -1378,7 +1420,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>background-position</t>
+      <t>background-size</t>
     </r>
     <r>
       <rPr>
@@ -1386,38 +1428,11 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>: left top</t>
-    </r>
-  </si>
-  <si>
-    <t>left top</t>
-  </si>
-  <si>
-    <t>Padrão</t>
-  </si>
-  <si>
-    <t>right top</t>
-  </si>
-  <si>
-    <t>left center</t>
-  </si>
-  <si>
-    <t>center center</t>
-  </si>
-  <si>
-    <t>left bottom</t>
-  </si>
-  <si>
-    <t>center top</t>
-  </si>
-  <si>
-    <t>center bottom</t>
-  </si>
-  <si>
-    <t>right center</t>
-  </si>
-  <si>
-    <t>right bottom</t>
+      <t>: ;</t>
+    </r>
+  </si>
+  <si>
+    <t>cobrir a tela inteira</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2191,6 +2206,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2236,52 +2305,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2314,60 +2389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2395,22 +2416,19 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3272,10 +3290,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3296,10 +3314,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="164" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3307,112 +3325,138 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="126"/>
-      <c r="B3" s="163"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="126"/>
-      <c r="B4" s="163"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="163"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="164" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="167" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="105"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="169" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A8" s="106"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="170" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="164" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="165"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="117" t="s">
+      <c r="B9" s="165" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="C9" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="D9" t="s">
         <v>261</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="105"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="105"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="105"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="168" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="105"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="96" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="105"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="105"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="96" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="118"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="167" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="118"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="167" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="118"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="167" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="118"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="167" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="118"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="167" t="s">
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="105"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="96" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="118"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="167" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="118"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="167" t="s">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A17" s="106"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="97" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169" t="s">
-        <v>270</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3714,86 +3758,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="119" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="102"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="102"/>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="120"/>
+      <c r="B4" s="114" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="102"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="103"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="116" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -3810,7 +3854,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="99"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -3825,7 +3869,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="99"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -3840,22 +3884,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="99"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="99"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -3863,16 +3907,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="100"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -3887,301 +3931,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="104" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="118"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="118"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="118"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="118"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="118"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="101"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="118"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="118"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="118"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="118"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="119"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="104" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="118"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="118"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="101"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="118"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="114"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="101"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="118"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="101"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="118"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="118"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="118"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="114"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="101"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="118"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="118"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="114"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="119"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="107" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4198,7 +4242,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="121"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4213,7 +4257,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="109" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4230,7 +4274,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="123"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4247,7 +4291,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="107" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4262,54 +4306,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="126"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="126"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="121"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="104" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4324,7 +4368,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="118"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4339,7 +4383,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="118"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4354,7 +4398,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="118"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4369,7 +4413,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="119"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4385,6 +4429,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
@@ -4394,15 +4447,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="D40:G42"/>
     <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4428,10 +4472,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="135" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4445,8 +4489,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="126"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="136"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4458,8 +4502,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="126"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4471,8 +4515,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="126"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4484,8 +4528,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="126"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4497,8 +4541,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="126"/>
-      <c r="B6" s="151"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4510,8 +4554,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="126"/>
-      <c r="B7" s="149" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="135" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4525,8 +4569,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="126"/>
-      <c r="B8" s="150"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4538,8 +4582,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="126"/>
-      <c r="B9" s="150"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4551,8 +4595,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="126"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4564,8 +4608,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="126"/>
-      <c r="B11" s="150"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4577,8 +4621,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="121"/>
-      <c r="B12" s="151"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4590,90 +4634,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="126"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="139" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="137" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="126"/>
-      <c r="B16" s="149" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="126"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="139" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="126"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="139" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="137" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="126"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -4686,33 +4730,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="126"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="121"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="107" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -4727,7 +4771,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="126"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -4740,7 +4784,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="126"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -4753,7 +4797,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="126"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -4766,7 +4810,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -4779,7 +4823,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="144" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -4794,7 +4838,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="141"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -4807,7 +4851,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="142"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -4820,7 +4864,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="147" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -4835,7 +4879,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="128"/>
+      <c r="A32" s="148"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -4848,20 +4892,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="129" t="s">
+      <c r="B33" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="131"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="119"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -4872,7 +4916,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="152" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -4887,94 +4931,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="133"/>
-      <c r="B36" s="132" t="s">
+      <c r="A36" s="153"/>
+      <c r="B36" s="152" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="D36" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="135"/>
+      <c r="E36" s="155"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="133"/>
-      <c r="B37" s="133"/>
+      <c r="A37" s="153"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="135" t="s">
+      <c r="D37" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="135"/>
+      <c r="E37" s="155"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="133"/>
-      <c r="B38" s="133"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="136" t="s">
+      <c r="D38" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="136"/>
+      <c r="E38" s="156"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="133"/>
-      <c r="B39" s="133"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="133"/>
-      <c r="B41" s="133"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="134"/>
-      <c r="B42" s="134"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="120" t="s">
+      <c r="A43" s="107" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -4989,7 +5033,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="126"/>
+      <c r="A44" s="113"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5002,7 +5046,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="126"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5015,7 +5059,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="121"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -5041,33 +5085,47 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="144" t="s">
+      <c r="C48" s="129"/>
+      <c r="D48" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="145"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="131"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="121"/>
-      <c r="B49" s="148" t="s">
+      <c r="A49" s="108"/>
+      <c r="B49" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="148"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="147"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
@@ -5084,20 +5142,6 @@
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E42"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5126,17 +5170,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="158"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="160"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5145,39 +5189,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="104" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="118"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5194,7 +5238,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5211,80 +5255,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="104" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="159" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="158"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="160"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155" t="s">
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="158"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="104" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="161" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="162"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5323,13 +5367,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="163" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5359,7 +5403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="104" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5373,7 +5417,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="119"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="285">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1434,12 +1434,94 @@
   <si>
     <t>cobrir a tela inteira</t>
   </si>
+  <si>
+    <t>Fundo Fixo de tela</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-attachment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: ;</t>
+    </r>
+  </si>
+  <si>
+    <t>Rolar Junto com o conteúdo</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Fundo fixo</t>
+  </si>
+  <si>
+    <t>Shorthand Background-image</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> color &gt; image &gt; position &gt; repeat &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[size]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; attachment</t>
+    </r>
+  </si>
+  <si>
+    <t>Size não funciona</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,6 +1791,13 @@
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1999,7 +2088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2203,15 +2292,72 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2260,50 +2406,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2332,12 +2481,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2347,48 +2490,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2419,18 +2520,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3290,22 +3380,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" thickBot="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="94" t="s">
@@ -3314,10 +3404,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3325,34 +3415,34 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="165"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="108"/>
-      <c r="B5" s="165"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="123" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="98" t="s">
         <v>270</v>
       </c>
       <c r="D6" t="s">
@@ -3360,9 +3450,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="105"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="169" t="s">
+      <c r="A7" s="124"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
       <c r="D7" t="s">
@@ -3370,9 +3460,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="170" t="s">
+      <c r="A8" s="125"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="101" t="s">
         <v>273</v>
       </c>
       <c r="D8" t="s">
@@ -3380,13 +3470,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="169" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="95" t="s">
         <v>260</v>
       </c>
       <c r="D9" t="s">
@@ -3394,63 +3484,104 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="105"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="96" t="s">
+      <c r="A10" s="124"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="105"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="96" t="s">
+      <c r="A11" s="124"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="105"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="168" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="105"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="96" t="s">
+      <c r="A13" s="124"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="105"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="96" t="s">
+      <c r="A14" s="124"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="105"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="96" t="s">
+      <c r="A15" s="124"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="105"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="124"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="97" t="s">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A17" s="125"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="168" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A20" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B9:B17"/>
@@ -3758,86 +3889,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="107" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="120"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="114" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="102" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="120"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="121"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="104" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -3854,7 +3985,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="117"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -3869,7 +4000,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="117"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -3884,22 +4015,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="117"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="117"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -3907,16 +4038,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="118"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -3931,301 +4062,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="123" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="105"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="105"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="105"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="105"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="105"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="101"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="105"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="105"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="105"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="105"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="106"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="123" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="105"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="101"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="105"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="101"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="105"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="101"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="105"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="101"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="105"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="101"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="105"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="105"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="101"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="105"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="101"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="105"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="126" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4242,7 +4373,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="108"/>
+      <c r="A36" s="127"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4257,7 +4388,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="128" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4274,7 +4405,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="110"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4291,7 +4422,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="126" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4306,54 +4437,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="113"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="111" t="s">
+      <c r="D40" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="113"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="108"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="123" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4368,7 +4499,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="105"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4383,7 +4514,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="105"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4398,7 +4529,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="105"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4413,7 +4544,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="106"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4429,6 +4560,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C24:I34"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A7:A12"/>
@@ -4438,15 +4578,6 @@
     <mergeCell ref="D4:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C24:I34"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4472,10 +4603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="155" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4489,8 +4620,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="113"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="156"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4502,8 +4633,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="113"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="156"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4515,8 +4646,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="113"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4528,8 +4659,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="113"/>
-      <c r="B5" s="136"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4541,8 +4672,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="137"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4554,8 +4685,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="113"/>
-      <c r="B7" s="135" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="155" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4569,8 +4700,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="113"/>
-      <c r="B8" s="136"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4582,8 +4713,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="113"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4595,8 +4726,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="113"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4608,8 +4739,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="113"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4621,8 +4752,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="108"/>
-      <c r="B12" s="137"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="157"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4634,90 +4765,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="113"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="138" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="139" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="113"/>
-      <c r="B16" s="135" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="113"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="138" t="s">
+      <c r="A17" s="132"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="113"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="138" t="s">
+      <c r="A18" s="132"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="113"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="139" t="s">
+      <c r="A19" s="132"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="113"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -4730,33 +4861,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="113"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="108"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="142"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="160"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="126" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -4771,7 +4902,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="113"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -4784,7 +4915,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="113"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -4797,7 +4928,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="113"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -4810,7 +4941,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="108"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -4823,7 +4954,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="146" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -4838,7 +4969,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="145"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -4851,7 +4982,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="146"/>
+      <c r="A30" s="148"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -4864,7 +4995,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="133" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -4879,7 +5010,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="148"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -4892,20 +5023,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="149" t="s">
+      <c r="B33" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="151"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -4916,7 +5047,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="138" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -4931,94 +5062,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="153"/>
-      <c r="B36" s="152" t="s">
+      <c r="A36" s="139"/>
+      <c r="B36" s="138" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="155" t="s">
+      <c r="D36" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="155"/>
+      <c r="E36" s="141"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="153"/>
-      <c r="B37" s="153"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="155" t="s">
+      <c r="D37" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="155"/>
+      <c r="E37" s="141"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="153"/>
-      <c r="B38" s="153"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="156" t="s">
+      <c r="D38" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="156"/>
+      <c r="E38" s="142"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="153"/>
-      <c r="B39" s="153"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="153"/>
-      <c r="B40" s="153"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="153"/>
-      <c r="B41" s="153"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="154"/>
-      <c r="B42" s="154"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="126" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5033,7 +5164,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="113"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5046,7 +5177,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="113"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5059,7 +5190,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="108"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -5085,47 +5216,33 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="126" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="129" t="s">
+      <c r="B48" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="129"/>
-      <c r="D48" s="130" t="s">
+      <c r="C48" s="149"/>
+      <c r="D48" s="150" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="131"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="151"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="108"/>
-      <c r="B49" s="134" t="s">
+      <c r="A49" s="127"/>
+      <c r="B49" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="134"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="133"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E42"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
@@ -5142,6 +5259,20 @@
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5170,17 +5301,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="163" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="160"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="164"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5189,39 +5320,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="123" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="105"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5238,7 +5369,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5255,80 +5386,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="123" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159" t="s">
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="160"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="164"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="106"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157" t="s">
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="162"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="123" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="162"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="166"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="106"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="161" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5367,13 +5498,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5403,7 +5534,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="123" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5417,7 +5548,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="106"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="regras CSS - @" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="295">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1516,12 +1516,75 @@
   <si>
     <t>Size não funciona</t>
   </si>
+  <si>
+    <t>Posicionamento vertical</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>conteúdo</t>
+  </si>
+  <si>
+    <t>top:</t>
+  </si>
+  <si>
+    <t>left:</t>
+  </si>
+  <si>
+    <t>Centralizar Verticalmente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>transform:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>translate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(-50%, -50%);</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1798,6 +1861,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2088,7 +2157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2313,6 +2382,55 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2358,52 +2476,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2436,60 +2560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2514,13 +2584,27 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2565,6 +2649,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3382,7 +3467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3394,7 +3479,7 @@
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="97" t="s">
         <v>249</v>
       </c>
@@ -3404,10 +3489,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="169" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3415,31 +3500,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="132"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="169"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="168" t="s">
+      <c r="B6" s="169" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -3450,8 +3535,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="124"/>
-      <c r="B7" s="169"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
@@ -3460,7 +3545,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="125"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="170"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
@@ -3470,10 +3555,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="171" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -3484,79 +3569,79 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="124"/>
-      <c r="B10" s="169"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="124"/>
-      <c r="B11" s="169"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="124"/>
-      <c r="B12" s="169"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="124"/>
-      <c r="B13" s="169"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="124"/>
-      <c r="B14" s="169"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="124"/>
-      <c r="B15" s="169"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="124"/>
-      <c r="B16" s="169"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="125"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="170"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="169" t="s">
         <v>278</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="168" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="125"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="170"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
@@ -3569,7 +3654,7 @@
       <c r="A20" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="102" t="s">
         <v>283</v>
       </c>
       <c r="C20" s="49"/>
@@ -3862,10 +3947,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan10"/>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3873,6 +3958,7 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
@@ -3889,86 +3975,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="124" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="108"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="125"/>
+      <c r="B4" s="119" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="108"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="130"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="109"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="121" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -3985,7 +4071,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="105"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4000,7 +4086,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="105"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4015,22 +4101,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="105"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="105"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4038,16 +4124,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="106"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4062,301 +4148,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="109" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="124"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="124"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="124"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="106"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="124"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="124"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="124"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="124"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="106"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="124"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="106"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="124"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="125"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="109" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="124"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="124"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="124"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="106"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="124"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="106"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="124"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="106"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="124"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="106"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="124"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="106"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="124"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="120"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="106"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="124"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="125"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="112" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4373,7 +4459,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="127"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4388,7 +4474,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="114" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4405,7 +4491,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="129"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4422,7 +4508,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="112" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4437,54 +4523,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="132"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="130" t="s">
+      <c r="D40" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="127"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="109" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4499,7 +4585,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="124"/>
+      <c r="A44" s="110"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4514,7 +4600,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="124"/>
+      <c r="A45" s="110"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4529,7 +4615,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="124"/>
+      <c r="A46" s="110"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4544,7 +4630,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="125"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4558,8 +4644,85 @@
       <c r="H47" s="23"/>
       <c r="I47" s="22"/>
     </row>
+    <row r="48" spans="1:9" ht="30" customHeight="1">
+      <c r="A48" s="112" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="172" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="118"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="120" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A50" s="113"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E50" s="117"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A51" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="176" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
@@ -4569,15 +4732,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="D40:G42"/>
     <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4603,10 +4757,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="140" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4620,8 +4774,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="132"/>
-      <c r="B2" s="156"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4633,8 +4787,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="132"/>
-      <c r="B3" s="156"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4646,8 +4800,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="132"/>
-      <c r="B4" s="156"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4659,8 +4813,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="132"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4672,8 +4826,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="132"/>
-      <c r="B6" s="157"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4685,8 +4839,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="132"/>
-      <c r="B7" s="155" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="140" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4700,8 +4854,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="132"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4713,8 +4867,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="132"/>
-      <c r="B9" s="156"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4726,8 +4880,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="132"/>
-      <c r="B10" s="156"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4739,8 +4893,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="132"/>
-      <c r="B11" s="156"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4752,8 +4906,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="127"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4765,90 +4919,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="132"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="145" t="s">
+      <c r="A14" s="118"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="132"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="143" t="s">
+      <c r="A15" s="118"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="132"/>
-      <c r="B16" s="155" t="s">
+      <c r="A16" s="118"/>
+      <c r="B16" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="132"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="145" t="s">
+      <c r="A17" s="118"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="132"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="145" t="s">
+      <c r="A18" s="118"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="143" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="132"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -4861,33 +5015,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="132"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="127"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="160"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="147"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="112" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -4902,7 +5056,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="132"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -4915,7 +5069,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="132"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -4928,7 +5082,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="132"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -4941,7 +5095,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="127"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -4954,7 +5108,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="149" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -4969,7 +5123,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="147"/>
+      <c r="A29" s="150"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -4982,7 +5136,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="148"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -4995,7 +5149,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="133" t="s">
+      <c r="A31" s="152" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5010,7 +5164,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="134"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5023,20 +5177,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="123" t="s">
+      <c r="A33" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="135" t="s">
+      <c r="B33" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="156"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="125"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5047,7 +5201,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="138" t="s">
+      <c r="A35" s="157" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5062,94 +5216,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="139"/>
-      <c r="B36" s="138" t="s">
+      <c r="A36" s="158"/>
+      <c r="B36" s="157" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="141" t="s">
+      <c r="D36" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="141"/>
+      <c r="E36" s="160"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="139"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="141" t="s">
+      <c r="D37" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="141"/>
+      <c r="E37" s="160"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="139"/>
-      <c r="B38" s="139"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="142" t="s">
+      <c r="D38" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="142"/>
+      <c r="E38" s="161"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="139"/>
-      <c r="B39" s="139"/>
+      <c r="A39" s="158"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="139"/>
-      <c r="B40" s="139"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="139"/>
-      <c r="B41" s="139"/>
+      <c r="A41" s="158"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="140"/>
-      <c r="B42" s="140"/>
+      <c r="A42" s="159"/>
+      <c r="B42" s="159"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="126" t="s">
+      <c r="A43" s="112" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5164,7 +5318,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="132"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5331,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="132"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5190,7 +5344,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="127"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -5216,33 +5370,47 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="134" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="D48" s="150" t="s">
+      <c r="C48" s="134"/>
+      <c r="D48" s="135" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="136"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="127"/>
-      <c r="B49" s="154" t="s">
+      <c r="A49" s="113"/>
+      <c r="B49" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="154"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="153"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
@@ -5259,20 +5427,6 @@
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E42"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5301,17 +5455,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="164" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="165"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5320,39 +5474,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="109" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="124"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5369,7 +5523,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="124"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5386,80 +5540,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="109" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="165"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="125"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161" t="s">
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="109" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="125"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5498,13 +5652,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="168" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5534,7 +5688,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="109" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5548,7 +5702,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="125"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -2383,6 +2383,81 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2410,71 +2485,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2503,12 +2566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2518,48 +2575,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2589,21 +2604,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2649,7 +2649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3489,10 +3488,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="174" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3500,31 +3499,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="113"/>
-      <c r="B5" s="171"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="134" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="174" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -3535,8 +3534,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="110"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
@@ -3545,8 +3544,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="111"/>
-      <c r="B8" s="170"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
       </c>
@@ -3555,10 +3554,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="176" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -3569,80 +3568,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="110"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="110"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="110"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="110"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="110"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="110"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="110"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="111"/>
-      <c r="B17" s="170"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="174" t="s">
         <v>278</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="173" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="170"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
       </c>
@@ -3949,7 +3948,7 @@
   <sheetPr codeName="Plan10"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -3975,86 +3974,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="118" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="125"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="119" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="114" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="125"/>
-      <c r="B5" s="119"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="126"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="115" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4071,7 +4070,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="122"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4086,7 +4085,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="122"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4101,22 +4100,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="122"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="122"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4124,16 +4123,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4148,301 +4147,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="134" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="110"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="110"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="110"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="110"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="110"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="110"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="110"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="110"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="110"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="111"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="134" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="110"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="110"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="110"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="106"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="110"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="106"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="110"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="106"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="110"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="106"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="110"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="106"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="110"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="106"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="110"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="111"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="133"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="111" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4474,7 +4473,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="114" t="s">
+      <c r="A37" s="137" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4491,7 +4490,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="115"/>
+      <c r="A38" s="138"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4508,7 +4507,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="111" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4523,34 +4522,34 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="118"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="118"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
@@ -4562,15 +4561,15 @@
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="134" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4585,7 +4584,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="110"/>
+      <c r="A44" s="135"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4600,7 +4599,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="110"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4615,7 +4614,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="110"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4630,7 +4629,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="111"/>
+      <c r="A47" s="136"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4645,10 +4644,10 @@
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="111" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="172" t="s">
+      <c r="B48" s="108" t="s">
         <v>286</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -4664,15 +4663,15 @@
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="118"/>
-      <c r="B49" s="173"/>
-      <c r="C49" s="120" t="s">
+      <c r="A49" s="112"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="104" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="116" t="s">
+      <c r="E49" s="106" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="26"/>
@@ -4682,12 +4681,12 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="113"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="175"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="117"/>
+      <c r="E50" s="107"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -4697,7 +4696,7 @@
       <c r="A51" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="B51" s="176" t="s">
+      <c r="B51" s="103" t="s">
         <v>294</v>
       </c>
       <c r="C51" s="50"/>
@@ -4710,6 +4709,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B48:B50"/>
@@ -4726,12 +4731,6 @@
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4757,10 +4756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="161" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4774,8 +4773,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118"/>
-      <c r="B2" s="141"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="162"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4787,8 +4786,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="118"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="162"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4800,8 +4799,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="118"/>
-      <c r="B4" s="141"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4813,8 +4812,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="118"/>
-      <c r="B5" s="141"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4826,8 +4825,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="142"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4839,8 +4838,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="118"/>
-      <c r="B7" s="140" t="s">
+      <c r="A7" s="112"/>
+      <c r="B7" s="161" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4854,8 +4853,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="118"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4867,8 +4866,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="118"/>
-      <c r="B9" s="141"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4880,8 +4879,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="118"/>
-      <c r="B10" s="141"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4893,8 +4892,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="118"/>
-      <c r="B11" s="141"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4907,7 +4906,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="113"/>
-      <c r="B12" s="142"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4919,90 +4918,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="148" t="s">
+      <c r="C13" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="118"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="143" t="s">
+      <c r="A14" s="112"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="144" t="s">
+      <c r="A15" s="112"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="118"/>
-      <c r="B16" s="140" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="118"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="143" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="118"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="143" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="118"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="144" t="s">
+      <c r="A19" s="112"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="118"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -5015,16 +5014,16 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="118"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
@@ -5032,16 +5031,16 @@
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="146" t="s">
+      <c r="C22" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="147"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="166"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="111" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -5056,7 +5055,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -5069,7 +5068,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="118"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -5082,7 +5081,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="118"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -5108,7 +5107,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="152" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -5123,7 +5122,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="150"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -5136,7 +5135,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="151"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -5149,7 +5148,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="139" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5164,7 +5163,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="153"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5177,20 +5176,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="154" t="s">
+      <c r="B33" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="143"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="111"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5201,7 +5200,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="144" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5216,94 +5215,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="158"/>
-      <c r="B36" s="157" t="s">
+      <c r="A36" s="145"/>
+      <c r="B36" s="144" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="160"/>
+      <c r="E36" s="147"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="158"/>
-      <c r="B37" s="158"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="160" t="s">
+      <c r="D37" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="160"/>
+      <c r="E37" s="147"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="161" t="s">
+      <c r="D38" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="161"/>
+      <c r="E38" s="148"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="158"/>
-      <c r="B39" s="158"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="158"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="145"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="158"/>
-      <c r="B41" s="158"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="159"/>
-      <c r="B42" s="159"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="111" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5318,7 +5317,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="118"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5331,7 +5330,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="118"/>
+      <c r="A45" s="112"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5370,47 +5369,33 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="134" t="s">
+      <c r="B48" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="134"/>
-      <c r="D48" s="135" t="s">
+      <c r="C48" s="155"/>
+      <c r="D48" s="156" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="136"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="157"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
       <c r="A49" s="113"/>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="160" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="138"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E42"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
@@ -5427,6 +5412,20 @@
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5455,17 +5454,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="165"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5474,39 +5473,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="134" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="110"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5523,7 +5522,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="110"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5540,80 +5539,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="134" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164" t="s">
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="165"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="167" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162" t="s">
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="163"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="168"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="134" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="167"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="172"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="163"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5652,13 +5651,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="173" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5688,7 +5687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="134" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5702,7 +5701,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="111"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="regras CSS - @" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="303">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1578,6 +1578,30 @@
       </rPr>
       <t>(-50%, -50%);</t>
     </r>
+  </si>
+  <si>
+    <t>Text-transform</t>
+  </si>
+  <si>
+    <t>uppercase;</t>
+  </si>
+  <si>
+    <t>lowercase;</t>
+  </si>
+  <si>
+    <t>Todas as letras maiúsculas</t>
+  </si>
+  <si>
+    <t>Todas as letras minúsculas</t>
+  </si>
+  <si>
+    <t>font-variant</t>
+  </si>
+  <si>
+    <t>small-caps;</t>
+  </si>
+  <si>
+    <t>Letras maiúsculas com a primeira letra de cada palavra maior que as outras</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2386,18 +2410,60 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2407,15 +2473,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2458,37 +2515,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2521,60 +2599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,6 +2628,15 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2649,6 +2682,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3439,7 +3473,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3488,7 +3522,7 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="113" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="174" t="s">
@@ -3499,28 +3533,28 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="112"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="176"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="112"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="176"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="176"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="104" t="s">
         <v>257</v>
       </c>
       <c r="B6" s="174" t="s">
@@ -3534,7 +3568,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="135"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="176"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
@@ -3544,7 +3578,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="136"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="175"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
@@ -3554,7 +3588,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="104" t="s">
         <v>258</v>
       </c>
       <c r="B9" s="176" t="s">
@@ -3568,63 +3602,63 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="135"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="176"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="135"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="176"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="135"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="176"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="135"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="176"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="135"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="176"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="135"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="176"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="135"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="176"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="136"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="175"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="104" t="s">
         <v>276</v>
       </c>
       <c r="B18" s="174" t="s">
@@ -3640,7 +3674,7 @@
       <c r="F18" s="173"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="136"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="175"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
@@ -3948,7 +3982,7 @@
   <sheetPr codeName="Plan10"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -3974,86 +4008,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="129" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="119"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="119"/>
-      <c r="B4" s="114" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="125" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="119"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="120"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="126" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4070,7 +4104,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="116"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4085,7 +4119,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="116"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4100,22 +4134,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="116"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="116"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4123,16 +4157,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="117"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4147,301 +4181,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="104" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="135"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="135"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="135"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="135"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="135"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="135"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="135"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="135"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="135"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="136"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="133"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="104" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="129"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="135"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="135"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="135"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="131"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="135"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="131"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="110"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="135"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="131"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="110"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="135"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="131"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="110"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="135"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="110"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="135"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="135"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="136"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="133"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="112"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="113" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4458,7 +4492,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="113"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4473,7 +4507,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="137" t="s">
+      <c r="A37" s="115" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4490,7 +4524,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="138"/>
+      <c r="A38" s="116"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4507,7 +4541,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="113" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4522,54 +4556,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="112"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="106" t="s">
+      <c r="D40" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="112"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="113"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="104" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4584,7 +4618,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="135"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4599,7 +4633,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="135"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4614,7 +4648,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="135"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4629,7 +4663,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="136"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4644,10 +4678,10 @@
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="122" t="s">
         <v>286</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -4663,15 +4697,15 @@
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="112"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="104" t="s">
+      <c r="A49" s="119"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="120" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="106" t="s">
+      <c r="E49" s="117" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="26"/>
@@ -4680,13 +4714,13 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="113"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="105"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="107"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -4709,12 +4743,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B48:B50"/>
@@ -4731,6 +4759,12 @@
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4740,10 +4774,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan11"/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4756,10 +4790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="145" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4773,8 +4807,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="112"/>
-      <c r="B2" s="162"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4786,8 +4820,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="112"/>
-      <c r="B3" s="162"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4799,8 +4833,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="112"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4812,8 +4846,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="112"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4825,8 +4859,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="163"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4838,8 +4872,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="112"/>
-      <c r="B7" s="161" t="s">
+      <c r="A7" s="119"/>
+      <c r="B7" s="145" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4853,8 +4887,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="112"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4866,8 +4900,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="112"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4879,8 +4913,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="112"/>
-      <c r="B10" s="162"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4892,8 +4926,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="112"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4905,8 +4939,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="163"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4918,34 +4952,34 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="112"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="151" t="s">
+      <c r="A14" s="119"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="163"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="149" t="s">
         <v>146</v>
       </c>
@@ -4955,43 +4989,43 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="112"/>
-      <c r="B16" s="161" t="s">
+      <c r="A16" s="119"/>
+      <c r="B16" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="112"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="151" t="s">
+      <c r="A17" s="119"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="112"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="151" t="s">
+      <c r="A18" s="119"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="163"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="149" t="s">
         <v>141</v>
       </c>
@@ -5001,7 +5035,7 @@
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="112"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -5014,33 +5048,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="112"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="113"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="165" t="s">
+      <c r="C22" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="166"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="113" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -5055,7 +5089,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="112"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -5068,7 +5102,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="112"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -5081,7 +5115,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="112"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -5094,7 +5128,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="113"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -5107,7 +5141,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="154" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -5122,7 +5156,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="153"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -5135,7 +5169,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="154"/>
+      <c r="A30" s="156"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -5148,7 +5182,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="139" t="s">
+      <c r="A31" s="157" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5163,7 +5197,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="140"/>
+      <c r="A32" s="158"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5176,20 +5210,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="161"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="136"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5200,7 +5234,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="144" t="s">
+      <c r="A35" s="162" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5215,94 +5249,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="145"/>
-      <c r="B36" s="144" t="s">
+      <c r="A36" s="163"/>
+      <c r="B36" s="162" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="147" t="s">
+      <c r="D36" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="147"/>
+      <c r="E36" s="165"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="145"/>
-      <c r="B37" s="145"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="147" t="s">
+      <c r="D37" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="147"/>
+      <c r="E37" s="165"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="145"/>
-      <c r="B38" s="145"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="148" t="s">
+      <c r="D38" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="148"/>
+      <c r="E38" s="166"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="145"/>
-      <c r="B39" s="145"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="145"/>
-      <c r="B40" s="145"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="145"/>
-      <c r="B41" s="145"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="113" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5317,7 +5351,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="112"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5330,7 +5364,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="112"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5343,7 +5377,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="113"/>
+      <c r="A46" s="114"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -5369,33 +5403,92 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="155"/>
-      <c r="D48" s="156" t="s">
+      <c r="C48" s="139"/>
+      <c r="D48" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="157"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="141"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="113"/>
-      <c r="B49" s="160" t="s">
+      <c r="A49" s="114"/>
+      <c r="B49" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="160"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="159"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="143"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="104" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="29"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A51" s="106"/>
+      <c r="B51" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A52" s="179" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="177" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="178" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="178"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="178"/>
+      <c r="G52" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
@@ -5412,20 +5505,6 @@
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E42"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5486,7 +5565,7 @@
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="104" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
@@ -5505,7 +5584,7 @@
       <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="135"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5522,7 +5601,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="135"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5539,7 +5618,7 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="104" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
@@ -5560,7 +5639,7 @@
       <c r="K6" s="170"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="136"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
@@ -5579,7 +5658,7 @@
       <c r="K7" s="168"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="104" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
@@ -5598,7 +5677,7 @@
       <c r="K8" s="172"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="136"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
@@ -5687,7 +5766,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="104" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5701,7 +5780,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="136"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="regras CSS - @" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Responsividade" sheetId="10" r:id="rId8"/>
     <sheet name="Eventos" sheetId="11" r:id="rId9"/>
     <sheet name="Imagens" sheetId="12" r:id="rId10"/>
+    <sheet name="Tabelas" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="317">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1602,6 +1603,48 @@
   </si>
   <si>
     <t>Letras maiúsculas com a primeira letra de cada palavra maior que as outras</t>
+  </si>
+  <si>
+    <t>separate</t>
+  </si>
+  <si>
+    <t>collapse;</t>
+  </si>
+  <si>
+    <t>Juntar as bordas</t>
+  </si>
+  <si>
+    <t>Bordas</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Alinhamento horizontal</t>
+  </si>
+  <si>
+    <t>Alinhamento vertical</t>
+  </si>
+  <si>
+    <t>vertical-align: ;</t>
+  </si>
+  <si>
+    <t>text-align: ;</t>
+  </si>
+  <si>
+    <t>border-collapse: ;</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>padrão</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>baseline / top</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2177,11 +2220,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2410,6 +2492,102 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2419,101 +2597,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2542,12 +2681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2557,48 +2690,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2629,13 +2720,33 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2682,7 +2793,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3473,7 +3583,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3525,7 +3635,7 @@
       <c r="A2" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="177" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3533,31 +3643,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="176"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="119"/>
-      <c r="B4" s="176"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="176"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="177" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -3568,8 +3678,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="105"/>
-      <c r="B7" s="176"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
@@ -3578,8 +3688,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
       </c>
@@ -3588,10 +3698,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="179" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -3602,80 +3712,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="105"/>
-      <c r="B10" s="176"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="105"/>
-      <c r="B11" s="176"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="105"/>
-      <c r="B12" s="176"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="105"/>
-      <c r="B13" s="176"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="105"/>
-      <c r="B14" s="176"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="105"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="105"/>
-      <c r="B16" s="176"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="175"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="177" t="s">
         <v>278</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="173" t="s">
+      <c r="D18" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="106"/>
-      <c r="B19" s="175"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
       </c>
@@ -3704,6 +3814,119 @@
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="136" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="189" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="180" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="181" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="138"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="185" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="136" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="186" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="137"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="138"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="136" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="182" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="137"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="90" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="138"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
   </mergeCells>
@@ -4008,86 +4231,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="120" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="130"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="130"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="116" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="130"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="135"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="131"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="137"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="117" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4104,7 +4327,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="127"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4119,7 +4342,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="127"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4134,22 +4357,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="127"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="127"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4157,16 +4380,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="138" t="s">
+      <c r="E11" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="128"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4181,298 +4404,298 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="136" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="105"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="105"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="105"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="105"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="105"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="105"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="105"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="105"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="105"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="106"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="135"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="136" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="105"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="105"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="110"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="105"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="105"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="105"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="110"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="105"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="110"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="105"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="110"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="105"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="110"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="105"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="110"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="135"/>
     </row>
     <row r="35" spans="1:9" ht="60">
       <c r="A35" s="113" t="s">
@@ -4492,7 +4715,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="114"/>
+      <c r="A36" s="115"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4507,7 +4730,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4524,7 +4747,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="116"/>
+      <c r="A38" s="140"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4556,54 +4779,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="119"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="117" t="s">
+      <c r="D40" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="119"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="114"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="136" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4618,7 +4841,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="105"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4633,7 +4856,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="105"/>
+      <c r="A45" s="137"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4648,7 +4871,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="105"/>
+      <c r="A46" s="137"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4663,7 +4886,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="106"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4681,7 +4904,7 @@
       <c r="A48" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="122" t="s">
+      <c r="B48" s="110" t="s">
         <v>286</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -4697,15 +4920,15 @@
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="119"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="120" t="s">
+      <c r="A49" s="114"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="106" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="117" t="s">
+      <c r="E49" s="108" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="26"/>
@@ -4714,13 +4937,13 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="114"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="121"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="118"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -4743,6 +4966,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B48:B50"/>
@@ -4759,12 +4988,6 @@
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4793,7 +5016,7 @@
       <c r="A1" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="164" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -4807,8 +5030,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="119"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -4820,8 +5043,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="119"/>
-      <c r="B3" s="146"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -4833,8 +5056,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="119"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -4846,8 +5069,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="119"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -4859,8 +5082,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="119"/>
-      <c r="B6" s="147"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -4872,8 +5095,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="119"/>
-      <c r="B7" s="145" t="s">
+      <c r="A7" s="114"/>
+      <c r="B7" s="164" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -4887,8 +5110,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="119"/>
-      <c r="B8" s="146"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -4900,8 +5123,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="119"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -4913,8 +5136,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="119"/>
-      <c r="B10" s="146"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -4926,8 +5149,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="119"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -4939,8 +5162,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="147"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -4955,7 +5178,7 @@
       <c r="A13" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="164" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="153" t="s">
@@ -4967,30 +5190,30 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="119"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="148" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="149" t="s">
+      <c r="A15" s="114"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="119"/>
-      <c r="B16" s="145" t="s">
+      <c r="A16" s="114"/>
+      <c r="B16" s="164" t="s">
         <v>145</v>
       </c>
       <c r="C16" s="153" t="s">
@@ -5002,40 +5225,40 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="119"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="148" t="s">
+      <c r="A17" s="114"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="119"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="148" t="s">
+      <c r="A18" s="114"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="149" t="s">
+      <c r="A19" s="114"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="119"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -5048,30 +5271,30 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="119"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="114"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="152"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="113" t="s">
@@ -5089,7 +5312,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="119"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -5102,7 +5325,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="119"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -5115,7 +5338,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="119"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -5128,7 +5351,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="114"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -5141,7 +5364,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="155" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -5156,7 +5379,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="155"/>
+      <c r="A29" s="156"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -5169,7 +5392,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="156"/>
+      <c r="A30" s="157"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -5182,7 +5405,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="157" t="s">
+      <c r="A31" s="142" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5197,7 +5420,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="158"/>
+      <c r="A32" s="143"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5210,20 +5433,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="161"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="146"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5234,7 +5457,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="162" t="s">
+      <c r="A35" s="147" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5249,87 +5472,87 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="163"/>
-      <c r="B36" s="162" t="s">
+      <c r="A36" s="148"/>
+      <c r="B36" s="147" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="165" t="s">
+      <c r="D36" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="165"/>
+      <c r="E36" s="150"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
+      <c r="A37" s="148"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="165" t="s">
+      <c r="D37" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="165"/>
+      <c r="E37" s="150"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="163"/>
-      <c r="B38" s="163"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="166"/>
+      <c r="E38" s="151"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="163"/>
-      <c r="B39" s="163"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="163"/>
-      <c r="B40" s="163"/>
+      <c r="A40" s="148"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="163"/>
-      <c r="B41" s="163"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="164"/>
-      <c r="B42" s="164"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
@@ -5351,7 +5574,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="119"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5364,7 +5587,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="119"/>
+      <c r="A45" s="114"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5377,7 +5600,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="114"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -5406,30 +5629,30 @@
       <c r="A48" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="139" t="s">
+      <c r="B48" s="158" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="139"/>
-      <c r="D48" s="140" t="s">
+      <c r="C48" s="158"/>
+      <c r="D48" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="141"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="160"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="114"/>
-      <c r="B49" s="144" t="s">
+      <c r="A49" s="115"/>
+      <c r="B49" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="144"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="143"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="161"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="162"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="136" t="s">
         <v>295</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -5444,7 +5667,7 @@
       <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A51" s="106"/>
+      <c r="A51" s="138"/>
       <c r="B51" s="23" t="s">
         <v>297</v>
       </c>
@@ -5457,22 +5680,39 @@
       <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A52" s="179" t="s">
+      <c r="A52" s="105" t="s">
         <v>300</v>
       </c>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="C52" s="178" t="s">
+      <c r="C52" s="141" t="s">
         <v>302</v>
       </c>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141"/>
       <c r="G52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="A31:A32"/>
@@ -5484,27 +5724,10 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E42"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5533,17 +5756,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="172" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5552,39 +5775,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="136" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="172" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="170"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="173"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="105"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5601,7 +5824,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5618,80 +5841,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="136" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169" t="s">
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="170"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="106"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="168"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="171"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="136" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="106"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="170" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="168"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5730,13 +5953,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="176" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5766,7 +5989,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="136" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -5780,7 +6003,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="106"/>
+      <c r="A2" s="138"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="331">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1645,6 +1645,48 @@
   </si>
   <si>
     <t>baseline / top</t>
+  </si>
+  <si>
+    <t>Efeito Zebrado</t>
+  </si>
+  <si>
+    <t>tr:nth-child(2n)</t>
+  </si>
+  <si>
+    <t>(2n)</t>
+  </si>
+  <si>
+    <t>(odd)</t>
+  </si>
+  <si>
+    <t>(even)</t>
+  </si>
+  <si>
+    <t>marcar as células ímpares</t>
+  </si>
+  <si>
+    <t>quantidade de célular que serão puladas</t>
+  </si>
+  <si>
+    <t>marcar as células pares</t>
+  </si>
+  <si>
+    <t>Cabeçalho Fixo</t>
+  </si>
+  <si>
+    <t>position: sticky;</t>
+  </si>
+  <si>
+    <t>position: relative;</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>thead &gt; tr &gt; th</t>
+  </si>
+  <si>
+    <t>top: -1px</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2070,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2221,16 +2263,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2243,7 +2317,39 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2253,8 +2359,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2263,7 +2386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2498,18 +2621,64 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2519,15 +2688,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2570,38 +2730,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2636,24 +2799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2672,24 +2817,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2720,34 +2847,43 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3632,10 +3768,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3643,31 +3779,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="179"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="179"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="179" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -3678,8 +3814,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="137"/>
-      <c r="B7" s="179"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
@@ -3688,8 +3824,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="178"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
       </c>
@@ -3698,10 +3834,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="181" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -3712,80 +3848,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="137"/>
-      <c r="B10" s="179"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="137"/>
-      <c r="B11" s="179"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="137"/>
-      <c r="B12" s="179"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="137"/>
-      <c r="B13" s="179"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="137"/>
-      <c r="B14" s="179"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="137"/>
-      <c r="B15" s="179"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="137"/>
-      <c r="B16" s="179"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="138"/>
-      <c r="B17" s="178"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="179" t="s">
         <v>278</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="176" t="s">
+      <c r="D18" s="178" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="178"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
       </c>
@@ -3824,105 +3960,166 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="182" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="180" t="s">
+      <c r="C1" s="183" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="184" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="138"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="185" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="186" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="185" t="s">
+      <c r="D2" s="187" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="182" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="188" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="184" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="146"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="190"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="138"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="147"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="187"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="191" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="183" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="184"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="137"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="90" t="s">
+      <c r="A7" s="146"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="190" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="147"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="186" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="187"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="145" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="194" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="188" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="184" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="146"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="190" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="147"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="186" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="187" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="108" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A13" s="110"/>
+      <c r="B13" s="197" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B3:B5"/>
@@ -4231,86 +4428,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="133" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="121"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="134"/>
+      <c r="B4" s="129" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="139"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="121"/>
-      <c r="B5" s="116"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="141"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="130" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4327,7 +4524,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="118"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4342,7 +4539,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="118"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4357,22 +4554,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="118"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="118"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4380,16 +4577,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4404,301 +4601,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="108" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="137"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="133"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="137"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="133"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="137"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="137"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="137"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="133"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="137"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="137"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="137"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="137"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="133"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="138"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="135"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="108" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="137"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="133"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="137"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="137"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="133"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="114"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="137"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="137"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="114"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="137"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="133"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="114"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="137"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="114"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="137"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="137"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="133"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="114"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="138"/>
+      <c r="A34" s="110"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="135"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="116"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="117" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4715,7 +4912,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="115"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4730,7 +4927,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="119" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4747,7 +4944,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="140"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4764,7 +4961,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="117" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4779,54 +4976,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="114"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D40" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="114"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="115"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="108" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -4841,7 +5038,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="137"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -4856,7 +5053,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="137"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -4871,7 +5068,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="137"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -4886,7 +5083,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="138"/>
+      <c r="A47" s="110"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -4901,10 +5098,10 @@
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="117" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="126" t="s">
         <v>286</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -4920,15 +5117,15 @@
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="114"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="106" t="s">
+      <c r="A49" s="123"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="124" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="108" t="s">
+      <c r="E49" s="121" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="26"/>
@@ -4937,13 +5134,13 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="115"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="107"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="109"/>
+      <c r="E50" s="122"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -4966,12 +5163,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B48:B50"/>
@@ -4988,6 +5179,12 @@
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5013,10 +5210,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="145" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -5030,8 +5227,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="114"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -5043,8 +5240,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="114"/>
-      <c r="B3" s="165"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -5056,8 +5253,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="114"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -5069,8 +5266,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114"/>
-      <c r="B5" s="165"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -5082,8 +5279,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="166"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -5095,8 +5292,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="114"/>
-      <c r="B7" s="164" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="145" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -5110,8 +5307,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="114"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -5123,8 +5320,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="114"/>
-      <c r="B9" s="165"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -5136,8 +5333,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="114"/>
-      <c r="B10" s="165"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -5149,8 +5346,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="114"/>
-      <c r="B11" s="165"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -5162,8 +5359,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="115"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -5175,90 +5372,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="114"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="154" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="152" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="114"/>
-      <c r="B16" s="164" t="s">
+      <c r="A16" s="123"/>
+      <c r="B16" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="114"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="154" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="114"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="154" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="152" t="s">
+      <c r="A19" s="123"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="114"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -5271,33 +5468,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="114"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="115"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="169"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="117" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -5312,7 +5509,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="114"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -5325,7 +5522,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="114"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -5338,7 +5535,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="114"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -5351,7 +5548,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="115"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -5364,7 +5561,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="149" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -5379,7 +5576,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="156"/>
+      <c r="A29" s="150"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -5392,7 +5589,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="157"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -5405,7 +5602,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="156" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5420,7 +5617,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="143"/>
+      <c r="A32" s="157"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5433,20 +5630,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="144" t="s">
+      <c r="B33" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="146"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="160"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="138"/>
+      <c r="A34" s="110"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5457,7 +5654,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="161" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5472,94 +5669,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="148"/>
-      <c r="B36" s="147" t="s">
+      <c r="A36" s="162"/>
+      <c r="B36" s="161" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="150" t="s">
+      <c r="D36" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="150"/>
+      <c r="E36" s="164"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="148"/>
-      <c r="B37" s="148"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="150" t="s">
+      <c r="D37" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="150"/>
+      <c r="E37" s="164"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="148"/>
-      <c r="B38" s="148"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="151" t="s">
+      <c r="D38" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="151"/>
+      <c r="E38" s="165"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="148"/>
-      <c r="B39" s="148"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="162"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="148"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="149"/>
-      <c r="B42" s="149"/>
+      <c r="A42" s="163"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="113" t="s">
+      <c r="A43" s="117" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5574,7 +5771,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="114"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5587,7 +5784,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="114"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5600,7 +5797,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="115"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -5626,33 +5823,33 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="158"/>
-      <c r="D48" s="159" t="s">
+      <c r="C48" s="166"/>
+      <c r="D48" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="160"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="168"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="115"/>
-      <c r="B49" s="163" t="s">
+      <c r="A49" s="118"/>
+      <c r="B49" s="171" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="163"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="170"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="136" t="s">
+      <c r="A50" s="108" t="s">
         <v>295</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -5667,7 +5864,7 @@
       <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A51" s="138"/>
+      <c r="A51" s="110"/>
       <c r="B51" s="23" t="s">
         <v>297</v>
       </c>
@@ -5686,33 +5883,16 @@
       <c r="B52" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="C52" s="141" t="s">
+      <c r="C52" s="155" t="s">
         <v>302</v>
       </c>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
       <c r="G52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="A31:A32"/>
@@ -5728,6 +5908,23 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5740,7 +5937,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5756,17 +5953,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="175"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5775,39 +5972,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="172" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="108" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="174" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="137"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -5824,7 +6021,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="137"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -5841,80 +6038,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="108" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="175"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="138"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170" t="s">
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="171"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="173"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="108" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="177"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="138"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5953,13 +6150,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="178" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5989,7 +6186,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="108" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -6003,7 +6200,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="138"/>
+      <c r="A2" s="110"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -2625,245 +2625,257 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2872,18 +2884,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3768,10 +3768,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="186" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3780,30 +3780,30 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="123"/>
-      <c r="B3" s="181"/>
+      <c r="B3" s="188"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="123"/>
-      <c r="B4" s="181"/>
+      <c r="B4" s="188"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="181"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="145" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="186" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -3814,8 +3814,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="109"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
@@ -3824,8 +3824,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
       </c>
@@ -3834,10 +3834,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="145" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="188" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -3848,80 +3848,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="109"/>
-      <c r="B10" s="181"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="188"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="109"/>
-      <c r="B11" s="181"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="188"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="109"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="109"/>
-      <c r="B13" s="181"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="188"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="109"/>
-      <c r="B14" s="181"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="188"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="109"/>
-      <c r="B15" s="181"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="109"/>
-      <c r="B16" s="181"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="110"/>
-      <c r="B17" s="180"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="145" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="186" t="s">
         <v>278</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="185" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="110"/>
-      <c r="B19" s="180"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
       </c>
@@ -3963,136 +3963,137 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="175" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="192" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="109" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="186" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="187" t="s">
+      <c r="D2" s="111" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="175" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="192" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="109" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="146"/>
-      <c r="B4" s="189"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="190"/>
+      <c r="D4" s="113"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="186" t="s">
+      <c r="A5" s="177"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="187"/>
+      <c r="D5" s="111"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="175" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="195" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="108" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="184"/>
+      <c r="D6" s="109"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="146"/>
-      <c r="B7" s="192"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="113" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="147"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="186" t="s">
+      <c r="A8" s="177"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="110" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="187"/>
+      <c r="D8" s="111"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="175" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="189" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="188" t="s">
+      <c r="C9" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="109" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="146"/>
-      <c r="B10" s="195"/>
+      <c r="A10" s="176"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="107" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="113" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="147"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="186" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="110" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="111" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="145" t="s">
         <v>325</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -4104,8 +4105,8 @@
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A13" s="110"/>
-      <c r="B13" s="197" t="s">
+      <c r="A13" s="147"/>
+      <c r="B13" s="114" t="s">
         <v>329</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -4428,86 +4429,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="129" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="134"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="134"/>
-      <c r="B4" s="129" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="125" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="139"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="134"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="135"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="126" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4524,7 +4525,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="131"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4539,7 +4540,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="131"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4554,22 +4555,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="131"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="131"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4577,16 +4578,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="132"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4601,301 +4602,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="145" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="109"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="142"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="109"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="142"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="109"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="142"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="109"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="142"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="109"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="109"/>
+      <c r="A19" s="146"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="109"/>
+      <c r="A20" s="146"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="109"/>
+      <c r="A21" s="146"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="142"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="109"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="142"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="110"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="144"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="145" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="109"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="142"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="109"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="142"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="109"/>
+      <c r="A27" s="146"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="114"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="142"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="109"/>
+      <c r="A28" s="146"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="142"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="109"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="142"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="109"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="109"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="114"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="142"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="109"/>
+      <c r="A32" s="146"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="142"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="109"/>
+      <c r="A33" s="146"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="114"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="142"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="110"/>
+      <c r="A34" s="147"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="144"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="122" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4912,7 +4913,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="118"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -4927,7 +4928,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="148" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4944,7 +4945,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="120"/>
+      <c r="A38" s="149"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4961,7 +4962,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="122" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4983,12 +4984,12 @@
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="121" t="s">
+      <c r="D40" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
@@ -5000,30 +5001,30 @@
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="118"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="145" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -5038,7 +5039,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="109"/>
+      <c r="A44" s="146"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -5053,7 +5054,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="109"/>
+      <c r="A45" s="146"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -5068,7 +5069,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="109"/>
+      <c r="A46" s="146"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -5083,7 +5084,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="110"/>
+      <c r="A47" s="147"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -5098,10 +5099,10 @@
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="126" t="s">
+      <c r="B48" s="119" t="s">
         <v>286</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -5118,14 +5119,14 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="123"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="124" t="s">
+      <c r="B49" s="120"/>
+      <c r="C49" s="115" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="121" t="s">
+      <c r="E49" s="117" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="26"/>
@@ -5134,13 +5135,13 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="118"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="125"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="116"/>
       <c r="D50" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="122"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -5163,6 +5164,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B48:B50"/>
@@ -5179,12 +5186,6 @@
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5210,10 +5211,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="175" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -5228,7 +5229,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="123"/>
-      <c r="B2" s="146"/>
+      <c r="B2" s="176"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -5241,7 +5242,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="123"/>
-      <c r="B3" s="146"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -5254,7 +5255,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="123"/>
-      <c r="B4" s="146"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -5267,7 +5268,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="123"/>
-      <c r="B5" s="146"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -5280,7 +5281,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="123"/>
-      <c r="B6" s="147"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -5293,7 +5294,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="123"/>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="175" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -5308,7 +5309,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="123"/>
-      <c r="B8" s="146"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -5321,7 +5322,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="123"/>
-      <c r="B9" s="146"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -5334,7 +5335,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="123"/>
-      <c r="B10" s="146"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -5347,7 +5348,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="123"/>
-      <c r="B11" s="146"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -5359,8 +5360,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="147"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -5372,86 +5373,86 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="123"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="144" t="s">
+      <c r="B14" s="176"/>
+      <c r="C14" s="170" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="123"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="148" t="s">
+      <c r="B15" s="177"/>
+      <c r="C15" s="171" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="123"/>
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="123"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="144" t="s">
+      <c r="B17" s="176"/>
+      <c r="C17" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="123"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="144" t="s">
+      <c r="B18" s="176"/>
+      <c r="C18" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="123"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="177"/>
+      <c r="C19" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
@@ -5472,29 +5473,29 @@
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="118"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="173" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="122" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -5548,7 +5549,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="118"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -5561,7 +5562,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="167" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -5576,7 +5577,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="150"/>
+      <c r="A29" s="168"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -5589,7 +5590,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="151"/>
+      <c r="A30" s="169"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -5602,7 +5603,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="156" t="s">
+      <c r="A31" s="151" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5617,7 +5618,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="157"/>
+      <c r="A32" s="152"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5630,20 +5631,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="158" t="s">
+      <c r="B33" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="160"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="110"/>
+      <c r="A34" s="147"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5654,7 +5655,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="161" t="s">
+      <c r="A35" s="156" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5669,94 +5670,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="162"/>
-      <c r="B36" s="161" t="s">
+      <c r="A36" s="157"/>
+      <c r="B36" s="156" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="164" t="s">
+      <c r="D36" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="164"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="162"/>
-      <c r="B37" s="162"/>
+      <c r="A37" s="157"/>
+      <c r="B37" s="157"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="164" t="s">
+      <c r="D37" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="164"/>
+      <c r="E37" s="159"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="162"/>
-      <c r="B38" s="162"/>
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="165" t="s">
+      <c r="D38" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="165"/>
+      <c r="E38" s="160"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="162"/>
-      <c r="B39" s="162"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="157"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="162"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="162"/>
-      <c r="B41" s="162"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="163"/>
-      <c r="B42" s="163"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="122" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5797,7 +5798,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="118"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -5823,33 +5824,33 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="166"/>
-      <c r="D48" s="167" t="s">
+      <c r="C48" s="161"/>
+      <c r="D48" s="162" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="168"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="163"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="118"/>
-      <c r="B49" s="171" t="s">
+      <c r="A49" s="124"/>
+      <c r="B49" s="166" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="171"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
-      <c r="G49" s="170"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="165"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="108" t="s">
+      <c r="A50" s="145" t="s">
         <v>295</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -5864,7 +5865,7 @@
       <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A51" s="110"/>
+      <c r="A51" s="147"/>
       <c r="B51" s="23" t="s">
         <v>297</v>
       </c>
@@ -5883,16 +5884,33 @@
       <c r="B52" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="C52" s="155" t="s">
+      <c r="C52" s="150" t="s">
         <v>302</v>
       </c>
-      <c r="D52" s="155"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
       <c r="G52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A13:A22"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="A31:A32"/>
@@ -5908,23 +5926,6 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5953,17 +5954,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="175"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="182"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5972,39 +5973,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="145" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="109"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -6021,7 +6022,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="109"/>
+      <c r="A5" s="146"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -6038,80 +6039,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="145" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174" t="s">
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="175"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="182"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="110"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="179" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172" t="s">
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="173"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="145" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="183" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="177"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="110"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="172" t="s">
+      <c r="C9" s="179" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="173"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6150,13 +6151,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="185" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -6186,7 +6187,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="145" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -6200,7 +6201,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="110"/>
+      <c r="A2" s="147"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="342">
   <si>
     <r>
       <t xml:space="preserve"> -@charset </t>
@@ -1688,12 +1688,121 @@
   <si>
     <t>top: -1px</t>
   </si>
+  <si>
+    <t>Tabela Responsiva</t>
+  </si>
+  <si>
+    <t>Envelopar a tavela inteira na div</t>
+  </si>
+  <si>
+    <t>criar um id para a div</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>overflow-x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: auto;</t>
+    </r>
+  </si>
+  <si>
+    <t>Rolagem Lateral</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>overflow-y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: auto;</t>
+    </r>
+  </si>
+  <si>
+    <t>Rolagem Vertical</t>
+  </si>
+  <si>
+    <t>Deixar a tabela com o tamanho de definido relativo a viewport</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 50vw;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 50vh;</t>
+    </r>
+  </si>
+  <si>
+    <t>Deixar a tabela com o tamanho de definido relativo a viewheight</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,6 +2086,34 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2386,7 +2523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2633,8 +2770,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2642,12 +2824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2657,15 +2833,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2708,38 +2875,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2792,42 +2962,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2884,6 +3018,24 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3768,10 +3920,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="185" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3779,31 +3931,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="123"/>
-      <c r="B3" s="188"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="123"/>
-      <c r="B4" s="188"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="124"/>
-      <c r="B5" s="188"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="185" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -3814,8 +3966,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="146"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
@@ -3824,8 +3976,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="147"/>
-      <c r="B8" s="187"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
       </c>
@@ -3834,10 +3986,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="187" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -3848,80 +4000,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="146"/>
-      <c r="B10" s="188"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="146"/>
-      <c r="B11" s="188"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="146"/>
-      <c r="B12" s="188"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="146"/>
-      <c r="B13" s="188"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="146"/>
-      <c r="B14" s="188"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="146"/>
-      <c r="B15" s="188"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="146"/>
-      <c r="B16" s="188"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="147"/>
-      <c r="B17" s="187"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="114" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="186" t="s">
+      <c r="B18" s="185" t="s">
         <v>278</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="184" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="147"/>
-      <c r="B19" s="187"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
       </c>
@@ -3960,10 +4112,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3975,10 +4127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="149" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="191" t="s">
         <v>312</v>
       </c>
       <c r="C1" s="108" t="s">
@@ -3989,8 +4141,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="177"/>
-      <c r="B2" s="193"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="192"/>
       <c r="C2" s="110" t="s">
         <v>304</v>
       </c>
@@ -3999,10 +4151,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="149" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="191" t="s">
         <v>311</v>
       </c>
       <c r="C3" s="112" t="s">
@@ -4013,26 +4165,26 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="176"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="193"/>
       <c r="C4" s="107" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="113"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="177"/>
-      <c r="B5" s="193"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="110" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="111"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="149" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="194" t="s">
         <v>310</v>
       </c>
       <c r="C6" s="108" t="s">
@@ -4041,8 +4193,8 @@
       <c r="D6" s="109"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="176"/>
-      <c r="B7" s="196"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="106" t="s">
         <v>315</v>
       </c>
@@ -4051,18 +4203,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="110" t="s">
         <v>313</v>
       </c>
       <c r="D8" s="111"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="149" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="188" t="s">
         <v>318</v>
       </c>
       <c r="C9" s="112" t="s">
@@ -4073,8 +4225,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="176"/>
-      <c r="B10" s="190"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="107" t="s">
         <v>320</v>
       </c>
@@ -4083,8 +4235,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="177"/>
-      <c r="B11" s="191"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="190"/>
       <c r="C11" s="110" t="s">
         <v>321</v>
       </c>
@@ -4093,7 +4245,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="114" t="s">
         <v>325</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -4105,19 +4257,80 @@
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A13" s="147"/>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="197" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="25" t="s">
         <v>330</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="114" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="115"/>
+      <c r="B15" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="115"/>
+      <c r="B16" s="198" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="115"/>
+      <c r="B17" s="198" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="115"/>
+      <c r="B18" s="198" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="199"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A19" s="116"/>
+      <c r="B19" s="200" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="201" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="202"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A12:A13"/>
@@ -4429,86 +4642,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="139" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="130"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="130"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="135" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="130"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="135"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="131"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="137"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="136" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4525,7 +4738,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="127"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4540,7 +4753,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="127"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4555,22 +4768,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="127"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="127"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4578,16 +4791,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="138" t="s">
+      <c r="E11" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="128"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4602,301 +4815,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="114" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="146"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="142"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="146"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="142"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="146"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="146"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="142"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="146"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="146"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="146"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="146"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="142"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="146"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="142"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="147"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="144"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="146"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="142"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="146"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="142"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="146"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="142"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="146"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="142"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="146"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="146"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="142"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="146"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="142"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="146"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="142"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="146"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="142"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="147"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="144"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="123" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4928,7 +5141,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="125" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -4945,7 +5158,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="149"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -4962,7 +5175,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="123" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -4977,34 +5190,34 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="123"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="117" t="s">
+      <c r="D40" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="123"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
@@ -5016,15 +5229,15 @@
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="145" t="s">
+      <c r="A43" s="114" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -5039,7 +5252,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="146"/>
+      <c r="A44" s="115"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -5054,7 +5267,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="146"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -5069,7 +5282,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="146"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -5084,7 +5297,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="147"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -5099,10 +5312,10 @@
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1">
-      <c r="A48" s="122" t="s">
+      <c r="A48" s="123" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="119" t="s">
+      <c r="B48" s="132" t="s">
         <v>286</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -5118,15 +5331,15 @@
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="123"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="115" t="s">
+      <c r="A49" s="129"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="130" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="117" t="s">
+      <c r="E49" s="127" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="26"/>
@@ -5136,12 +5349,12 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="124"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="116"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="131"/>
       <c r="D50" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="118"/>
+      <c r="E50" s="128"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -5164,12 +5377,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B48:B50"/>
@@ -5186,6 +5393,12 @@
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5211,10 +5424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="149" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -5228,8 +5441,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="123"/>
-      <c r="B2" s="176"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -5241,8 +5454,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="123"/>
-      <c r="B3" s="176"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -5254,8 +5467,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="123"/>
-      <c r="B4" s="176"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -5267,8 +5480,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="123"/>
-      <c r="B5" s="176"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -5280,8 +5493,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="177"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -5293,8 +5506,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="123"/>
-      <c r="B7" s="175" t="s">
+      <c r="A7" s="129"/>
+      <c r="B7" s="149" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -5308,8 +5521,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="123"/>
-      <c r="B8" s="176"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -5321,8 +5534,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="123"/>
-      <c r="B9" s="176"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -5334,8 +5547,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="123"/>
-      <c r="B10" s="176"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -5347,8 +5560,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="123"/>
-      <c r="B11" s="176"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -5361,7 +5574,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="124"/>
-      <c r="B12" s="177"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -5373,90 +5586,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="123"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="170" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="123"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="171" t="s">
+      <c r="A15" s="129"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="123"/>
-      <c r="B16" s="175" t="s">
+      <c r="A16" s="129"/>
+      <c r="B16" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="123"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="170" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="123"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="170" t="s">
+      <c r="A18" s="129"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="171" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="123"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -5469,16 +5682,16 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="123"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
@@ -5486,16 +5699,16 @@
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="174"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="160"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="123" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -5510,7 +5723,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="123"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -5523,7 +5736,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="123"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -5536,7 +5749,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="123"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -5562,7 +5775,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="155" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -5577,7 +5790,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="168"/>
+      <c r="A29" s="156"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -5590,7 +5803,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="169"/>
+      <c r="A30" s="157"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -5603,7 +5816,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="162" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5618,7 +5831,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="152"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5631,20 +5844,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="145" t="s">
+      <c r="A33" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="153" t="s">
+      <c r="B33" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="166"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="147"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5655,7 +5868,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="167" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5670,94 +5883,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="157"/>
-      <c r="B36" s="156" t="s">
+      <c r="A36" s="168"/>
+      <c r="B36" s="167" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="159" t="s">
+      <c r="D36" s="170" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="159"/>
+      <c r="E36" s="170"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="157"/>
-      <c r="B37" s="157"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="159" t="s">
+      <c r="D37" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="159"/>
+      <c r="E37" s="170"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="157"/>
-      <c r="B38" s="157"/>
+      <c r="A38" s="168"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="160" t="s">
+      <c r="D38" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="160"/>
+      <c r="E38" s="171"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="157"/>
-      <c r="B39" s="157"/>
+      <c r="A39" s="168"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="157"/>
-      <c r="B40" s="157"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="157"/>
-      <c r="B41" s="157"/>
+      <c r="A41" s="168"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="158"/>
-      <c r="B42" s="158"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="123" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5772,7 +5985,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="123"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5785,7 +5998,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="123"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -5824,33 +6037,33 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="122" t="s">
+      <c r="A48" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="161"/>
-      <c r="D48" s="162" t="s">
+      <c r="C48" s="172"/>
+      <c r="D48" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="162"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="163"/>
+      <c r="E48" s="173"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="174"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
       <c r="A49" s="124"/>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="166"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="165"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="176"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="114" t="s">
         <v>295</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -5865,7 +6078,7 @@
       <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A51" s="147"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="23" t="s">
         <v>297</v>
       </c>
@@ -5884,33 +6097,16 @@
       <c r="B52" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="C52" s="150" t="s">
+      <c r="C52" s="161" t="s">
         <v>302</v>
       </c>
-      <c r="D52" s="150"/>
-      <c r="E52" s="150"/>
-      <c r="F52" s="150"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
       <c r="G52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A13:A22"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="A31:A32"/>
@@ -5926,6 +6122,23 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5954,17 +6167,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="180" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="182"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="181"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -5973,39 +6186,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="178" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="114" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="181" t="s">
+      <c r="C3" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="182"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="146"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -6022,7 +6235,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="146"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -6039,80 +6252,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="114" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="180" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181" t="s">
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="182"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="181"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="147"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179" t="s">
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="114" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="183"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="147"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6151,13 +6364,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -6187,7 +6400,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="114" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -6201,7 +6414,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="147"/>
+      <c r="A2" s="116"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>

--- a/css.xlsx
+++ b/css.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="regras CSS - @" sheetId="1" r:id="rId1"/>
@@ -2770,6 +2770,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2779,101 +2878,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2884,84 +2968,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2992,6 +3001,15 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3018,24 +3036,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3920,10 +3920,10 @@
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="188" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3931,31 +3931,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="129"/>
-      <c r="B4" s="187"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="190"/>
       <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="124"/>
-      <c r="B5" s="187"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="190"/>
       <c r="C5" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="147" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="188" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -3966,8 +3966,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="115"/>
-      <c r="B7" s="187"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="190"/>
       <c r="C7" s="100" t="s">
         <v>271</v>
       </c>
@@ -3976,8 +3976,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="101" t="s">
         <v>273</v>
       </c>
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="147" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="190" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -4000,80 +4000,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="115"/>
-      <c r="B10" s="187"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="115"/>
-      <c r="B11" s="187"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="190"/>
       <c r="C11" s="95" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="115"/>
-      <c r="B12" s="187"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="190"/>
       <c r="C12" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="115"/>
-      <c r="B13" s="187"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="95" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="115"/>
-      <c r="B14" s="187"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="115"/>
-      <c r="B15" s="187"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="190"/>
       <c r="C15" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="115"/>
-      <c r="B16" s="187"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="190"/>
       <c r="C16" s="95" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="147" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="188" t="s">
         <v>278</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="184" t="s">
+      <c r="D18" s="187" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="116"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="189"/>
       <c r="C19" s="22" t="s">
         <v>280</v>
       </c>
@@ -4114,7 +4114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4127,10 +4127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="197" t="s">
         <v>312</v>
       </c>
       <c r="C1" s="108" t="s">
@@ -4141,8 +4141,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="192"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="110" t="s">
         <v>304</v>
       </c>
@@ -4151,10 +4151,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="177" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="197" t="s">
         <v>311</v>
       </c>
       <c r="C3" s="112" t="s">
@@ -4165,26 +4165,26 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="150"/>
-      <c r="B4" s="193"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="107" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="113"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="151"/>
-      <c r="B5" s="192"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="110" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="111"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="177" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="200" t="s">
         <v>310</v>
       </c>
       <c r="C6" s="108" t="s">
@@ -4193,8 +4193,8 @@
       <c r="D6" s="109"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="150"/>
-      <c r="B7" s="195"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="106" t="s">
         <v>315</v>
       </c>
@@ -4203,18 +4203,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="151"/>
-      <c r="B8" s="196"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="202"/>
       <c r="C8" s="110" t="s">
         <v>313</v>
       </c>
       <c r="D8" s="111"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="177" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="194" t="s">
         <v>318</v>
       </c>
       <c r="C9" s="112" t="s">
@@ -4225,8 +4225,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="150"/>
-      <c r="B10" s="189"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="107" t="s">
         <v>320</v>
       </c>
@@ -4235,8 +4235,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="190"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="110" t="s">
         <v>321</v>
       </c>
@@ -4245,7 +4245,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="147" t="s">
         <v>325</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -4257,8 +4257,8 @@
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="197" t="s">
+      <c r="A13" s="149"/>
+      <c r="B13" s="114" t="s">
         <v>329</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -4269,7 +4269,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="147" t="s">
         <v>331</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -4279,7 +4279,7 @@
       <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="115"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="33" t="s">
         <v>333</v>
       </c>
@@ -4287,8 +4287,8 @@
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="115"/>
-      <c r="B16" s="198" t="s">
+      <c r="A16" s="148"/>
+      <c r="B16" s="115" t="s">
         <v>334</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -4297,8 +4297,8 @@
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="115"/>
-      <c r="B17" s="198" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="115" t="s">
         <v>336</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -4307,39 +4307,39 @@
       <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="115"/>
-      <c r="B18" s="198" t="s">
+      <c r="A18" s="148"/>
+      <c r="B18" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="117" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="199"/>
+      <c r="D18" s="193"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A19" s="116"/>
-      <c r="B19" s="200" t="s">
+      <c r="A19" s="149"/>
+      <c r="B19" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="201" t="s">
+      <c r="C19" s="191" t="s">
         <v>341</v>
       </c>
-      <c r="D19" s="202"/>
+      <c r="D19" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4642,86 +4642,86 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="131" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="140"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
       <c r="H3" s="26"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="135" t="s">
+      <c r="A4" s="132"/>
+      <c r="B4" s="127" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="145"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="140"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="145"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="141"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="128" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4738,7 +4738,7 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="137"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="137"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
@@ -4768,22 +4768,22 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="137"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="137"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -4791,16 +4791,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="138"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="19" t="s">
         <v>59</v>
       </c>
@@ -4815,301 +4815,301 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="147" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="115"/>
+      <c r="A14" s="148"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="115"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="115"/>
+      <c r="A16" s="148"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="115"/>
+      <c r="A17" s="148"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="144"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="115"/>
+      <c r="A18" s="148"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="115"/>
+      <c r="A19" s="148"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="115"/>
+      <c r="A20" s="148"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="115"/>
+      <c r="A21" s="148"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="144"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="115"/>
+      <c r="A22" s="148"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="144"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="116"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="146"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="147" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="142"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="115"/>
+      <c r="A25" s="148"/>
       <c r="B25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="144"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="115"/>
+      <c r="A26" s="148"/>
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="144"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="115"/>
+      <c r="A27" s="148"/>
       <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="144"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="115"/>
+      <c r="A28" s="148"/>
       <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="144"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="115"/>
+      <c r="A29" s="148"/>
       <c r="B29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="144"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="115"/>
+      <c r="A30" s="148"/>
       <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="144"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="115"/>
+      <c r="A31" s="148"/>
       <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="144"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="115"/>
+      <c r="A32" s="148"/>
       <c r="B32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="120"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="144"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="115"/>
+      <c r="A33" s="148"/>
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="144"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="116"/>
+      <c r="A34" s="149"/>
       <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="146"/>
     </row>
     <row r="35" spans="1:9" ht="60">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="124" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -5126,7 +5126,7 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="124"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="19" t="s">
         <v>204</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="150" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="80" t="s">
@@ -5158,7 +5158,7 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="126"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="82" t="s">
         <v>209</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="123" t="s">
+      <c r="A39" s="124" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="83" t="s">
@@ -5190,54 +5190,54 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="129"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="84" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="127" t="s">
+      <c r="D40" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="129"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="124"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
       <c r="H42" s="23"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="114" t="s">
+      <c r="A43" s="147" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="92" t="s">
@@ -5252,7 +5252,7 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="115"/>
+      <c r="A44" s="148"/>
       <c r="B44" s="91" t="s">
         <v>241</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="115"/>
+      <c r="A45" s="148"/>
       <c r="B45" s="91" t="s">
         <v>243</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="115"/>
+      <c r="A46" s="148"/>
       <c r="B46" s="91" t="s">
         <v>245</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="116"/>
+      <c r="A47" s="149"/>
       <c r="B47" s="93" t="s">
         <v>247</v>
       </c>
@@ -5312,10 +5312,10 @@
       <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="124" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="132" t="s">
+      <c r="B48" s="121" t="s">
         <v>286</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -5331,15 +5331,15 @@
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="129"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="130" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="117" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="127" t="s">
+      <c r="E49" s="119" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="26"/>
@@ -5348,13 +5348,13 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="124"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="131"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E50" s="128"/>
+      <c r="E50" s="120"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -5377,6 +5377,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:I23"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D40:G42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B48:B50"/>
@@ -5393,12 +5399,6 @@
     <mergeCell ref="C24:I34"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="C13:I23"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D40:G42"/>
-    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5410,7 +5410,7 @@
   <sheetPr codeName="Plan11"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -5424,10 +5424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="177" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="65" t="s">
@@ -5441,8 +5441,8 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="129"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="178"/>
       <c r="C2" s="41" t="s">
         <v>172</v>
       </c>
@@ -5454,8 +5454,8 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="129"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="41" t="s">
         <v>170</v>
       </c>
@@ -5467,8 +5467,8 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="129"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="41" t="s">
         <v>168</v>
       </c>
@@ -5480,8 +5480,8 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="129"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="41" t="s">
         <v>166</v>
       </c>
@@ -5493,8 +5493,8 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="151"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
@@ -5506,8 +5506,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129"/>
-      <c r="B7" s="149" t="s">
+      <c r="A7" s="125"/>
+      <c r="B7" s="177" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -5521,8 +5521,8 @@
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="129"/>
-      <c r="B8" s="150"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="41" t="s">
         <v>160</v>
       </c>
@@ -5534,8 +5534,8 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="129"/>
-      <c r="B9" s="150"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="41" t="s">
         <v>158</v>
       </c>
@@ -5547,8 +5547,8 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="41" t="s">
         <v>156</v>
       </c>
@@ -5560,8 +5560,8 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="129"/>
-      <c r="B11" s="150"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="41" t="s">
         <v>154</v>
       </c>
@@ -5573,8 +5573,8 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="151"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="40" t="s">
         <v>152</v>
       </c>
@@ -5586,90 +5586,90 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="129"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="154" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="129"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="173" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="129"/>
-      <c r="B16" s="149" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="180" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="129"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="154" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="172" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="129"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="154" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="129"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="63" t="s">
         <v>140</v>
       </c>
@@ -5682,33 +5682,33 @@
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="129"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A22" s="124"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="160"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="176"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="124" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -5723,7 +5723,7 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="129"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="60" t="s">
         <v>119</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="129"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="61" t="s">
         <v>131</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="129"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="61" t="s">
         <v>129</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="124"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="60" t="s">
         <v>127</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="169" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -5790,7 +5790,7 @@
       <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="156"/>
+      <c r="A29" s="170"/>
       <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="157"/>
+      <c r="A30" s="171"/>
       <c r="B30" s="55" t="s">
         <v>120</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="153" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="53" t="s">
@@ -5831,7 +5831,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="163"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="41" t="s">
         <v>115</v>
       </c>
@@ -5844,20 +5844,20 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="164" t="s">
+      <c r="B33" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="166"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="116"/>
+      <c r="A34" s="149"/>
       <c r="B34" s="52" t="s">
         <v>111</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="158" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="51" t="s">
@@ -5883,94 +5883,94 @@
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="168"/>
-      <c r="B36" s="167" t="s">
+      <c r="A36" s="159"/>
+      <c r="B36" s="158" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="170" t="s">
+      <c r="D36" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="170"/>
+      <c r="E36" s="161"/>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
+      <c r="A37" s="159"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="170"/>
+      <c r="E37" s="161"/>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="168"/>
-      <c r="B38" s="168"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="171" t="s">
+      <c r="D38" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="171"/>
+      <c r="E38" s="162"/>
       <c r="F38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="168"/>
-      <c r="B39" s="168"/>
+      <c r="A39" s="159"/>
+      <c r="B39" s="159"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="168"/>
-      <c r="B40" s="168"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="45">
-      <c r="A41" s="168"/>
-      <c r="B41" s="168"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="159"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="169"/>
-      <c r="B42" s="169"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
       <c r="F42" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="124" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -5985,7 +5985,7 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="129"/>
+      <c r="A44" s="125"/>
       <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="129"/>
+      <c r="A45" s="125"/>
       <c r="B45" s="41" t="s">
         <v>90</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="124"/>
+      <c r="A46" s="126"/>
       <c r="B46" s="40" t="s">
         <v>88</v>
       </c>
@@ -6037,33 +6037,33 @@
       <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="124" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="172" t="s">
+      <c r="B48" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="172"/>
-      <c r="D48" s="173" t="s">
+      <c r="C48" s="163"/>
+      <c r="D48" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="174"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="165"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="124"/>
-      <c r="B49" s="177" t="s">
+      <c r="A49" s="126"/>
+      <c r="B49" s="168" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="177"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="175"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="176"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="167"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="147" t="s">
         <v>295</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -6078,7 +6078,7 @@
       <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A51" s="116"/>
+      <c r="A51" s="149"/>
       <c r="B51" s="23" t="s">
         <v>297</v>
       </c>
@@ -6097,16 +6097,33 @@
       <c r="B52" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="C52" s="161" t="s">
+      <c r="C52" s="152" t="s">
         <v>302</v>
       </c>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
       <c r="G52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="A31:A32"/>
@@ -6122,23 +6139,6 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G49"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6167,17 +6167,17 @@
       <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="180" t="s">
+      <c r="C1" s="183" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="181"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="184"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="76" t="s">
@@ -6186,39 +6186,39 @@
       <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
       <c r="J2" s="71"/>
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="147" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="183" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="184"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="115"/>
+      <c r="A4" s="148"/>
       <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="115"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="66" t="s">
         <v>189</v>
       </c>
@@ -6252,80 +6252,80 @@
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="147" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180" t="s">
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="181"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="116"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178" t="s">
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="179"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="182"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="147" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="183"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="186"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="116"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="178" t="s">
+      <c r="C9" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="179"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6364,13 +6364,13 @@
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -6395,12 +6395,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="147" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -6414,7 +6414,7 @@
       <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="116"/>
+      <c r="A2" s="149"/>
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>
